--- a/app/database/insert_dicts/data/fils_dict.xlsx
+++ b/app/database/insert_dicts/data/fils_dict.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\timosii\my_administrator\app\database\insert_dicts\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2364DE-56D1-4CDC-9972-4A398E90066B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FFC38F-E331-4489-A986-D6F570E697F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="new" sheetId="1" r:id="rId1"/>
@@ -1724,19 +1724,19 @@
   <dimension ref="A1:D422"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A273" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.54296875" customWidth="1"/>
+    <col min="1" max="1" width="35.5703125" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" customWidth="1"/>
-    <col min="4" max="4" width="8.90625" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>427</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1764,7 +1764,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>33</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>40</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>42</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>44</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>46</v>
       </c>
@@ -2086,7 +2086,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>48</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>50</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>52</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>54</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>56</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>58</v>
       </c>
@@ -2170,7 +2170,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>51</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>43</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>59</v>
       </c>
@@ -2212,7 +2212,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>61</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>62</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>63</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>64</v>
       </c>
@@ -2268,7 +2268,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>66</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>68</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>70</v>
       </c>
@@ -2310,7 +2310,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>72</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>74</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>76</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>78</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>79</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>10</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>81</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>24</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>82</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>84</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>85</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>86</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>87</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>88</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>89</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>91</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>93</v>
       </c>
@@ -2548,7 +2548,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>95</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>97</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>99</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>101</v>
       </c>
@@ -2604,7 +2604,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>102</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>104</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>105</v>
       </c>
@@ -2646,7 +2646,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>106</v>
       </c>
@@ -2660,7 +2660,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>107</v>
       </c>
@@ -2674,7 +2674,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>108</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>110</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>111</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>112</v>
       </c>
@@ -2730,7 +2730,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>114</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>116</v>
       </c>
@@ -2758,7 +2758,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>118</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>8</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>119</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>120</v>
       </c>
@@ -2814,7 +2814,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>122</v>
       </c>
@@ -2828,7 +2828,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>124</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>125</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>126</v>
       </c>
@@ -2870,7 +2870,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>127</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>128</v>
       </c>
@@ -2898,7 +2898,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>130</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>131</v>
       </c>
@@ -2926,7 +2926,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>132</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>134</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>136</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>137</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>98</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>138</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>139</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>141</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>142</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>143</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>144</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>65</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>146</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>147</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>148</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>150</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>151</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>152</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>153</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>155</v>
       </c>
@@ -3206,7 +3206,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>156</v>
       </c>
@@ -3220,7 +3220,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>158</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>160</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>161</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>157</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>162</v>
       </c>
@@ -3290,7 +3290,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>164</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>165</v>
       </c>
@@ -3318,7 +3318,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>166</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>80</v>
       </c>
@@ -3346,7 +3346,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>167</v>
       </c>
@@ -3360,7 +3360,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>168</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>22</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>169</v>
       </c>
@@ -3402,7 +3402,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>171</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>172</v>
       </c>
@@ -3430,7 +3430,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>174</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>39</v>
       </c>
@@ -3458,7 +3458,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>121</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>175</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>35</v>
       </c>
@@ -3500,7 +3500,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>176</v>
       </c>
@@ -3514,7 +3514,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>177</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>179</v>
       </c>
@@ -3542,7 +3542,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>180</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>181</v>
       </c>
@@ -3570,7 +3570,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>183</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>185</v>
       </c>
@@ -3598,7 +3598,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>186</v>
       </c>
@@ -3612,7 +3612,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>187</v>
       </c>
@@ -3626,7 +3626,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>188</v>
       </c>
@@ -3640,7 +3640,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>189</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>190</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>191</v>
       </c>
@@ -3682,7 +3682,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>159</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>192</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>193</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>194</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>195</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>196</v>
       </c>
@@ -3766,7 +3766,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>197</v>
       </c>
@@ -3780,7 +3780,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>199</v>
       </c>
@@ -3794,7 +3794,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>96</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>200</v>
       </c>
@@ -3822,7 +3822,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>201</v>
       </c>
@@ -3836,7 +3836,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>202</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>203</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>204</v>
       </c>
@@ -3878,7 +3878,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>205</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>206</v>
       </c>
@@ -3906,7 +3906,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>207</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>145</v>
       </c>
@@ -3934,7 +3934,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>208</v>
       </c>
@@ -3948,7 +3948,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>20</v>
       </c>
@@ -3962,7 +3962,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>209</v>
       </c>
@@ -3976,7 +3976,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>210</v>
       </c>
@@ -3990,7 +3990,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>211</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>212</v>
       </c>
@@ -4018,7 +4018,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>213</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>214</v>
       </c>
@@ -4046,7 +4046,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>90</v>
       </c>
@@ -4060,7 +4060,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>215</v>
       </c>
@@ -4074,7 +4074,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>216</v>
       </c>
@@ -4088,7 +4088,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>217</v>
       </c>
@@ -4102,7 +4102,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>218</v>
       </c>
@@ -4116,7 +4116,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>219</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>221</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>222</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>223</v>
       </c>
@@ -4172,7 +4172,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>224</v>
       </c>
@@ -4186,7 +4186,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>47</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>225</v>
       </c>
@@ -4214,7 +4214,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>53</v>
       </c>
@@ -4228,7 +4228,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>226</v>
       </c>
@@ -4242,7 +4242,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>26</v>
       </c>
@@ -4256,7 +4256,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>227</v>
       </c>
@@ -4270,7 +4270,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>229</v>
       </c>
@@ -4284,7 +4284,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>230</v>
       </c>
@@ -4298,7 +4298,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>149</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>231</v>
       </c>
@@ -4326,7 +4326,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>232</v>
       </c>
@@ -4340,7 +4340,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>234</v>
       </c>
@@ -4354,7 +4354,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>235</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>236</v>
       </c>
@@ -4382,7 +4382,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>45</v>
       </c>
@@ -4396,7 +4396,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>237</v>
       </c>
@@ -4410,7 +4410,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>238</v>
       </c>
@@ -4424,7 +4424,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>239</v>
       </c>
@@ -4438,7 +4438,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>240</v>
       </c>
@@ -4452,7 +4452,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>241</v>
       </c>
@@ -4466,7 +4466,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>242</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>243</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>228</v>
       </c>
@@ -4508,7 +4508,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>244</v>
       </c>
@@ -4522,7 +4522,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>245</v>
       </c>
@@ -4536,7 +4536,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>71</v>
       </c>
@@ -4550,7 +4550,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>247</v>
       </c>
@@ -4564,7 +4564,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>67</v>
       </c>
@@ -4578,7 +4578,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>249</v>
       </c>
@@ -4592,7 +4592,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>250</v>
       </c>
@@ -4606,7 +4606,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>251</v>
       </c>
@@ -4620,7 +4620,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>123</v>
       </c>
@@ -4634,7 +4634,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>252</v>
       </c>
@@ -4648,7 +4648,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>253</v>
       </c>
@@ -4662,7 +4662,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>254</v>
       </c>
@@ -4676,7 +4676,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>256</v>
       </c>
@@ -4690,7 +4690,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>32</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>257</v>
       </c>
@@ -4718,7 +4718,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>258</v>
       </c>
@@ -4732,7 +4732,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>259</v>
       </c>
@@ -4746,7 +4746,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>260</v>
       </c>
@@ -4760,7 +4760,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>261</v>
       </c>
@@ -4774,7 +4774,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>262</v>
       </c>
@@ -4788,7 +4788,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>263</v>
       </c>
@@ -4802,7 +4802,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>264</v>
       </c>
@@ -4816,7 +4816,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>266</v>
       </c>
@@ -4830,7 +4830,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>267</v>
       </c>
@@ -4844,7 +4844,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>268</v>
       </c>
@@ -4858,7 +4858,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>269</v>
       </c>
@@ -4872,7 +4872,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>12</v>
       </c>
@@ -4886,7 +4886,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>270</v>
       </c>
@@ -4900,7 +4900,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>271</v>
       </c>
@@ -4914,7 +4914,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>272</v>
       </c>
@@ -4928,7 +4928,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>273</v>
       </c>
@@ -4942,7 +4942,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>17</v>
       </c>
@@ -4956,7 +4956,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>274</v>
       </c>
@@ -4970,7 +4970,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>275</v>
       </c>
@@ -4984,7 +4984,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>276</v>
       </c>
@@ -4998,7 +4998,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>277</v>
       </c>
@@ -5012,7 +5012,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>278</v>
       </c>
@@ -5026,7 +5026,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>279</v>
       </c>
@@ -5040,7 +5040,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>163</v>
       </c>
@@ -5054,7 +5054,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>280</v>
       </c>
@@ -5068,7 +5068,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>281</v>
       </c>
@@ -5082,7 +5082,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>28</v>
       </c>
@@ -5096,7 +5096,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>282</v>
       </c>
@@ -5110,7 +5110,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>283</v>
       </c>
@@ -5124,7 +5124,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>284</v>
       </c>
@@ -5138,7 +5138,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>285</v>
       </c>
@@ -5152,7 +5152,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>286</v>
       </c>
@@ -5166,7 +5166,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>133</v>
       </c>
@@ -5180,7 +5180,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>173</v>
       </c>
@@ -5194,7 +5194,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>287</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>57</v>
       </c>
@@ -5222,7 +5222,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>288</v>
       </c>
@@ -5236,7 +5236,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>41</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>289</v>
       </c>
@@ -5264,7 +5264,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>184</v>
       </c>
@@ -5278,7 +5278,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>290</v>
       </c>
@@ -5292,7 +5292,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>233</v>
       </c>
@@ -5306,7 +5306,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>291</v>
       </c>
@@ -5320,7 +5320,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>292</v>
       </c>
@@ -5334,7 +5334,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>293</v>
       </c>
@@ -5348,7 +5348,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>294</v>
       </c>
@@ -5362,7 +5362,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>198</v>
       </c>
@@ -5376,7 +5376,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>295</v>
       </c>
@@ -5390,7 +5390,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>296</v>
       </c>
@@ -5404,7 +5404,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>297</v>
       </c>
@@ -5418,7 +5418,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>129</v>
       </c>
@@ -5432,7 +5432,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>298</v>
       </c>
@@ -5446,7 +5446,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>299</v>
       </c>
@@ -5460,7 +5460,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>300</v>
       </c>
@@ -5474,7 +5474,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>246</v>
       </c>
@@ -5488,7 +5488,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>301</v>
       </c>
@@ -5502,7 +5502,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>302</v>
       </c>
@@ -5516,7 +5516,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>170</v>
       </c>
@@ -5530,7 +5530,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>303</v>
       </c>
@@ -5544,7 +5544,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>304</v>
       </c>
@@ -5558,7 +5558,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>305</v>
       </c>
@@ -5572,7 +5572,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>306</v>
       </c>
@@ -5586,7 +5586,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>307</v>
       </c>
@@ -5600,7 +5600,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>308</v>
       </c>
@@ -5614,7 +5614,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
         <v>309</v>
       </c>
@@ -5628,7 +5628,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>310</v>
       </c>
@@ -5642,7 +5642,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>311</v>
       </c>
@@ -5656,7 +5656,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
         <v>154</v>
       </c>
@@ -5670,7 +5670,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
         <v>312</v>
       </c>
@@ -5684,7 +5684,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>313</v>
       </c>
@@ -5698,7 +5698,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>103</v>
       </c>
@@ -5712,7 +5712,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>314</v>
       </c>
@@ -5726,7 +5726,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
         <v>315</v>
       </c>
@@ -5740,7 +5740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>316</v>
       </c>
@@ -5754,7 +5754,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>317</v>
       </c>
@@ -5768,7 +5768,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
         <v>135</v>
       </c>
@@ -5782,7 +5782,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
         <v>318</v>
       </c>
@@ -5796,7 +5796,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
         <v>178</v>
       </c>
@@ -5810,7 +5810,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
         <v>319</v>
       </c>
@@ -5824,7 +5824,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
         <v>320</v>
       </c>
@@ -5838,7 +5838,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
         <v>321</v>
       </c>
@@ -5852,7 +5852,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
         <v>322</v>
       </c>
@@ -5866,7 +5866,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
         <v>73</v>
       </c>
@@ -5880,7 +5880,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
         <v>77</v>
       </c>
@@ -5894,7 +5894,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
         <v>69</v>
       </c>
@@ -5908,7 +5908,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
         <v>323</v>
       </c>
@@ -5922,7 +5922,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
         <v>324</v>
       </c>
@@ -5936,7 +5936,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
         <v>325</v>
       </c>
@@ -5950,7 +5950,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
         <v>326</v>
       </c>
@@ -5964,7 +5964,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
         <v>115</v>
       </c>
@@ -5978,7 +5978,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
         <v>327</v>
       </c>
@@ -5992,7 +5992,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
         <v>55</v>
       </c>
@@ -6006,7 +6006,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
         <v>328</v>
       </c>
@@ -6020,7 +6020,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
         <v>329</v>
       </c>
@@ -6034,7 +6034,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
         <v>330</v>
       </c>
@@ -6048,7 +6048,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
         <v>331</v>
       </c>
@@ -6062,7 +6062,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
         <v>332</v>
       </c>
@@ -6076,7 +6076,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
         <v>333</v>
       </c>
@@ -6090,7 +6090,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
         <v>334</v>
       </c>
@@ -6104,7 +6104,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
         <v>335</v>
       </c>
@@ -6118,7 +6118,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
         <v>336</v>
       </c>
@@ -6132,7 +6132,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
         <v>337</v>
       </c>
@@ -6146,7 +6146,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
         <v>338</v>
       </c>
@@ -6160,7 +6160,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
         <v>339</v>
       </c>
@@ -6174,7 +6174,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
         <v>340</v>
       </c>
@@ -6188,7 +6188,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
         <v>341</v>
       </c>
@@ -6202,7 +6202,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
         <v>342</v>
       </c>
@@ -6216,7 +6216,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
         <v>343</v>
       </c>
@@ -6230,7 +6230,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
         <v>344</v>
       </c>
@@ -6244,7 +6244,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
         <v>345</v>
       </c>
@@ -6258,7 +6258,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
         <v>265</v>
       </c>
@@ -6272,7 +6272,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
         <v>346</v>
       </c>
@@ -6286,7 +6286,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
         <v>347</v>
       </c>
@@ -6300,7 +6300,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
         <v>182</v>
       </c>
@@ -6314,7 +6314,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
         <v>348</v>
       </c>
@@ -6328,7 +6328,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
         <v>349</v>
       </c>
@@ -6342,7 +6342,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
         <v>350</v>
       </c>
@@ -6356,7 +6356,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
         <v>351</v>
       </c>
@@ -6370,7 +6370,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
         <v>75</v>
       </c>
@@ -6384,7 +6384,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
         <v>352</v>
       </c>
@@ -6398,7 +6398,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
         <v>353</v>
       </c>
@@ -6412,7 +6412,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
         <v>140</v>
       </c>
@@ -6426,7 +6426,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
         <v>354</v>
       </c>
@@ -6440,7 +6440,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
         <v>355</v>
       </c>
@@ -6454,7 +6454,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
         <v>356</v>
       </c>
@@ -6468,7 +6468,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
         <v>357</v>
       </c>
@@ -6482,7 +6482,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
         <v>358</v>
       </c>
@@ -6496,7 +6496,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
         <v>359</v>
       </c>
@@ -6510,7 +6510,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
         <v>360</v>
       </c>
@@ -6524,7 +6524,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
         <v>361</v>
       </c>
@@ -6538,7 +6538,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
         <v>83</v>
       </c>
@@ -6552,7 +6552,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
         <v>362</v>
       </c>
@@ -6566,7 +6566,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
         <v>14</v>
       </c>
@@ -6580,7 +6580,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
         <v>363</v>
       </c>
@@ -6594,7 +6594,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
         <v>364</v>
       </c>
@@ -6608,7 +6608,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
         <v>365</v>
       </c>
@@ -6622,7 +6622,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
         <v>366</v>
       </c>
@@ -6636,7 +6636,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
         <v>92</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
         <v>367</v>
       </c>
@@ -6664,7 +6664,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
         <v>368</v>
       </c>
@@ -6678,7 +6678,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
         <v>369</v>
       </c>
@@ -6692,7 +6692,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
         <v>370</v>
       </c>
@@ -6706,7 +6706,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
         <v>113</v>
       </c>
@@ -6720,7 +6720,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
         <v>109</v>
       </c>
@@ -6734,7 +6734,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
         <v>371</v>
       </c>
@@ -6748,7 +6748,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
         <v>372</v>
       </c>
@@ -6762,7 +6762,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
         <v>373</v>
       </c>
@@ -6776,7 +6776,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
         <v>374</v>
       </c>
@@ -6790,7 +6790,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
         <v>375</v>
       </c>
@@ -6804,7 +6804,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
         <v>376</v>
       </c>
@@ -6818,7 +6818,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
         <v>377</v>
       </c>
@@ -6832,7 +6832,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
         <v>378</v>
       </c>
@@ -6846,7 +6846,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
         <v>379</v>
       </c>
@@ -6860,7 +6860,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
         <v>380</v>
       </c>
@@ -6874,7 +6874,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
         <v>381</v>
       </c>
@@ -6888,7 +6888,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
         <v>382</v>
       </c>
@@ -6902,7 +6902,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
         <v>5</v>
       </c>
@@ -6916,7 +6916,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
         <v>383</v>
       </c>
@@ -6930,7 +6930,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
         <v>384</v>
       </c>
@@ -6944,7 +6944,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
         <v>385</v>
       </c>
@@ -6958,7 +6958,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
         <v>117</v>
       </c>
@@ -6972,7 +6972,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
         <v>386</v>
       </c>
@@ -6986,7 +6986,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
         <v>387</v>
       </c>
@@ -7000,7 +7000,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
         <v>388</v>
       </c>
@@ -7014,7 +7014,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
         <v>389</v>
       </c>
@@ -7028,7 +7028,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
         <v>390</v>
       </c>
@@ -7042,7 +7042,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
         <v>391</v>
       </c>
@@ -7056,7 +7056,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
         <v>392</v>
       </c>
@@ -7070,7 +7070,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
         <v>393</v>
       </c>
@@ -7084,7 +7084,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
         <v>394</v>
       </c>
@@ -7098,7 +7098,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
         <v>395</v>
       </c>
@@ -7112,7 +7112,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
         <v>220</v>
       </c>
@@ -7126,7 +7126,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
         <v>396</v>
       </c>
@@ -7140,7 +7140,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
         <v>397</v>
       </c>
@@ -7154,7 +7154,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
         <v>398</v>
       </c>
@@ -7168,7 +7168,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
         <v>94</v>
       </c>
@@ -7182,7 +7182,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
         <v>399</v>
       </c>
@@ -7196,7 +7196,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
         <v>400</v>
       </c>
@@ -7210,7 +7210,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
         <v>401</v>
       </c>
@@ -7224,7 +7224,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
         <v>402</v>
       </c>
@@ -7238,7 +7238,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
         <v>403</v>
       </c>
@@ -7252,7 +7252,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
         <v>100</v>
       </c>
@@ -7266,7 +7266,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
         <v>404</v>
       </c>
@@ -7280,7 +7280,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
         <v>405</v>
       </c>
@@ -7294,7 +7294,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
         <v>406</v>
       </c>
@@ -7308,7 +7308,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
         <v>407</v>
       </c>
@@ -7322,7 +7322,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
         <v>408</v>
       </c>
@@ -7336,7 +7336,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
         <v>409</v>
       </c>
@@ -7350,7 +7350,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
         <v>410</v>
       </c>
@@ -7364,7 +7364,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
         <v>248</v>
       </c>
@@ -7378,7 +7378,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
         <v>411</v>
       </c>
@@ -7392,7 +7392,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
         <v>412</v>
       </c>
@@ -7406,7 +7406,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
         <v>413</v>
       </c>
@@ -7420,7 +7420,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
         <v>414</v>
       </c>
@@ -7434,7 +7434,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
         <v>415</v>
       </c>
@@ -7448,7 +7448,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
         <v>416</v>
       </c>
@@ -7462,7 +7462,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
         <v>417</v>
       </c>
@@ -7476,7 +7476,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
         <v>60</v>
       </c>
@@ -7490,7 +7490,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
         <v>418</v>
       </c>
@@ -7504,7 +7504,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
         <v>419</v>
       </c>
@@ -7518,7 +7518,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
         <v>420</v>
       </c>
@@ -7532,7 +7532,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
         <v>421</v>
       </c>
@@ -7546,7 +7546,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
         <v>422</v>
       </c>
@@ -7560,7 +7560,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
         <v>49</v>
       </c>
@@ -7574,7 +7574,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
         <v>423</v>
       </c>
@@ -7588,7 +7588,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
         <v>424</v>
       </c>
@@ -7602,7 +7602,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
         <v>425</v>
       </c>
@@ -7616,7 +7616,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
         <v>255</v>
       </c>
@@ -7630,7 +7630,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
         <v>426</v>
       </c>

--- a/app/database/insert_dicts/data/fils_dict.xlsx
+++ b/app/database/insert_dicts/data/fils_dict.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27816"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\timosii\my_administrator\app\database\insert_dicts\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FFC38F-E331-4489-A986-D6F570E697F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF60F63-9E48-4887-9D5C-ADB33B29F49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1684" uniqueCount="428">
   <si>
     <t>fil_population</t>
   </si>
@@ -626,9 +626,6 @@
   </si>
   <si>
     <t>ДГП 143 филиал 13</t>
-  </si>
-  <si>
-    <t>ДГП 38 (ПО) Якиманка</t>
   </si>
   <si>
     <t>ДГП 30 филиал 1</t>
@@ -1721,11 +1718,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D422"/>
+  <dimension ref="A1:D421"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A150" sqref="A150:XFD150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1738,7 +1735,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1747,7 +1744,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -3833,7 +3830,7 @@
         <v>4</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -3841,13 +3838,13 @@
         <v>202</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>103</v>
+        <v>170</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -3861,7 +3858,7 @@
         <v>4</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>170</v>
+        <v>98</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -3875,7 +3872,7 @@
         <v>4</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>98</v>
+        <v>157</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -3889,7 +3886,7 @@
         <v>4</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>157</v>
+        <v>96</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -3903,40 +3900,40 @@
         <v>4</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>96</v>
+        <v>20</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>207</v>
+        <v>145</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>20</v>
+        <v>145</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>145</v>
+        <v>61</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>208</v>
+        <v>20</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>3</v>
@@ -3945,21 +3942,21 @@
         <v>4</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>20</v>
+        <v>208</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -3967,13 +3964,13 @@
         <v>209</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -3981,13 +3978,13 @@
         <v>210</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -3995,13 +3992,13 @@
         <v>211</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -4015,7 +4012,7 @@
         <v>4</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>33</v>
+        <v>186</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -4029,26 +4026,26 @@
         <v>4</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>214</v>
+        <v>90</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>170</v>
+        <v>90</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>90</v>
+        <v>214</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>16</v>
@@ -4057,7 +4054,7 @@
         <v>4</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -4071,7 +4068,7 @@
         <v>4</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -4079,13 +4076,13 @@
         <v>216</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>75</v>
+        <v>178</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -4093,13 +4090,13 @@
         <v>217</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -4113,12 +4110,12 @@
         <v>4</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>161</v>
+        <v>219</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>16</v>
@@ -4127,7 +4124,7 @@
         <v>4</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>220</v>
+        <v>45</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -4135,13 +4132,13 @@
         <v>221</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>45</v>
+        <v>221</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -4155,7 +4152,7 @@
         <v>4</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>222</v>
+        <v>62</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -4163,18 +4160,18 @@
         <v>223</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>62</v>
+        <v>219</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>224</v>
+        <v>47</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>16</v>
@@ -4183,40 +4180,40 @@
         <v>4</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>220</v>
+        <v>47</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>47</v>
+        <v>224</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>225</v>
+        <v>53</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>53</v>
+        <v>225</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>16</v>
@@ -4230,7 +4227,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>226</v>
+        <v>26</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>16</v>
@@ -4239,12 +4236,12 @@
         <v>4</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>26</v>
+        <v>226</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>16</v>
@@ -4253,21 +4250,21 @@
         <v>4</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>26</v>
+        <v>227</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>228</v>
+        <v>29</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -4281,35 +4278,35 @@
         <v>4</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>29</v>
+        <v>154</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>230</v>
+        <v>149</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>149</v>
+        <v>230</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>149</v>
+        <v>67</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -4323,12 +4320,12 @@
         <v>4</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>67</v>
+        <v>232</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>3</v>
@@ -4337,7 +4334,7 @@
         <v>4</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>233</v>
+        <v>163</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -4351,7 +4348,7 @@
         <v>4</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -4359,18 +4356,18 @@
         <v>235</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>178</v>
+        <v>47</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>236</v>
+        <v>45</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>16</v>
@@ -4379,21 +4376,21 @@
         <v>4</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>45</v>
+        <v>236</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>45</v>
+        <v>117</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -4401,13 +4398,13 @@
         <v>237</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>117</v>
+        <v>168</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -4415,13 +4412,13 @@
         <v>238</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -4429,13 +4426,13 @@
         <v>239</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>154</v>
+        <v>17</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -4449,7 +4446,7 @@
         <v>4</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>17</v>
+        <v>182</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -4457,13 +4454,13 @@
         <v>241</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>182</v>
+        <v>20</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -4471,18 +4468,18 @@
         <v>242</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>20</v>
+        <v>159</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>16</v>
@@ -4491,12 +4488,12 @@
         <v>4</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>159</v>
+        <v>227</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>16</v>
@@ -4505,7 +4502,7 @@
         <v>4</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>228</v>
+        <v>45</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -4513,18 +4510,18 @@
         <v>244</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>45</v>
+        <v>245</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>245</v>
+        <v>71</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>3</v>
@@ -4533,40 +4530,40 @@
         <v>4</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>246</v>
+        <v>71</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>71</v>
+        <v>246</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>71</v>
+        <v>247</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>247</v>
+        <v>67</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>248</v>
+        <v>67</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>67</v>
+        <v>248</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>3</v>
@@ -4575,7 +4572,7 @@
         <v>4</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -4583,13 +4580,13 @@
         <v>249</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -4597,41 +4594,41 @@
         <v>250</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>251</v>
+        <v>123</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>123</v>
+        <v>251</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -4645,7 +4642,7 @@
         <v>4</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>163</v>
+        <v>62</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -4653,32 +4650,32 @@
         <v>253</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>62</v>
+        <v>254</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D210" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>256</v>
+        <v>32</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>16</v>
@@ -4687,21 +4684,21 @@
         <v>4</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>255</v>
+        <v>32</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>32</v>
+        <v>256</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -4715,7 +4712,7 @@
         <v>4</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>163</v>
+        <v>29</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -4729,7 +4726,7 @@
         <v>4</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>29</v>
+        <v>165</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -4737,13 +4734,13 @@
         <v>259</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>165</v>
+        <v>26</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -4751,13 +4748,13 @@
         <v>260</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -4771,7 +4768,7 @@
         <v>4</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>39</v>
+        <v>109</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -4779,13 +4776,13 @@
         <v>262</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>109</v>
+        <v>176</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -4799,21 +4796,21 @@
         <v>4</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>176</v>
+        <v>264</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>265</v>
+        <v>110</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -4835,13 +4832,13 @@
         <v>267</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>110</v>
+        <v>254</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
@@ -4849,18 +4846,18 @@
         <v>268</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>255</v>
+        <v>157</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>269</v>
+        <v>12</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>3</v>
@@ -4869,12 +4866,12 @@
         <v>4</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>157</v>
+        <v>12</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>12</v>
+        <v>269</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>3</v>
@@ -4883,7 +4880,7 @@
         <v>4</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -4897,7 +4894,7 @@
         <v>4</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>35</v>
+        <v>221</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -4911,7 +4908,7 @@
         <v>4</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>222</v>
+        <v>135</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -4925,35 +4922,35 @@
         <v>4</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>273</v>
+        <v>17</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>133</v>
+        <v>17</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>17</v>
+        <v>273</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -4961,13 +4958,13 @@
         <v>274</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>14</v>
+        <v>264</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -4981,7 +4978,7 @@
         <v>4</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>265</v>
+        <v>60</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -4989,13 +4986,13 @@
         <v>276</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -5009,7 +5006,7 @@
         <v>4</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -5017,41 +5014,41 @@
         <v>278</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>279</v>
+        <v>163</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>47</v>
+        <v>163</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>163</v>
+        <v>279</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>163</v>
+        <v>109</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -5059,32 +5056,32 @@
         <v>280</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>109</v>
+        <v>163</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>281</v>
+        <v>28</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>163</v>
+        <v>28</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>28</v>
+        <v>281</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>16</v>
@@ -5093,7 +5090,7 @@
         <v>4</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -5107,7 +5104,7 @@
         <v>4</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>26</v>
+        <v>247</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -5115,13 +5112,13 @@
         <v>283</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>248</v>
+        <v>170</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -5135,7 +5132,7 @@
         <v>4</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>170</v>
+        <v>80</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -5154,7 +5151,7 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>286</v>
+        <v>133</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>3</v>
@@ -5163,68 +5160,68 @@
         <v>4</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>173</v>
+        <v>286</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>173</v>
+        <v>98</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>287</v>
+        <v>57</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>57</v>
+        <v>287</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>288</v>
+        <v>41</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>3</v>
@@ -5233,26 +5230,26 @@
         <v>4</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>41</v>
+        <v>288</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>289</v>
+        <v>184</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>16</v>
@@ -5261,12 +5258,12 @@
         <v>4</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>90</v>
+        <v>184</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>184</v>
+        <v>289</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>16</v>
@@ -5275,26 +5272,26 @@
         <v>4</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>290</v>
+        <v>232</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>149</v>
+        <v>232</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>233</v>
+        <v>290</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>3</v>
@@ -5303,7 +5300,7 @@
         <v>4</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>233</v>
+        <v>8</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -5317,7 +5314,7 @@
         <v>4</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
@@ -5325,13 +5322,13 @@
         <v>292</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>71</v>
+        <v>170</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
@@ -5339,41 +5336,41 @@
         <v>293</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>170</v>
+        <v>133</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>294</v>
+        <v>198</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>133</v>
+        <v>198</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>198</v>
+        <v>294</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>198</v>
+        <v>245</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
@@ -5387,7 +5384,7 @@
         <v>4</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>246</v>
+        <v>43</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -5401,35 +5398,35 @@
         <v>4</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>297</v>
+        <v>129</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>73</v>
+        <v>129</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>129</v>
+        <v>297</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>129</v>
+        <v>24</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -5437,13 +5434,13 @@
         <v>298</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>24</v>
+        <v>254</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
@@ -5451,18 +5448,18 @@
         <v>299</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>255</v>
+        <v>30</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>300</v>
+        <v>245</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>3</v>
@@ -5471,12 +5468,12 @@
         <v>4</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>30</v>
+        <v>245</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>246</v>
+        <v>300</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>3</v>
@@ -5485,7 +5482,7 @@
         <v>4</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -5499,12 +5496,12 @@
         <v>4</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>233</v>
+        <v>96</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>302</v>
+        <v>170</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>3</v>
@@ -5513,21 +5510,21 @@
         <v>4</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>96</v>
+        <v>170</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>170</v>
+        <v>302</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
@@ -5541,7 +5538,7 @@
         <v>4</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>182</v>
+        <v>94</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -5555,7 +5552,7 @@
         <v>4</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
@@ -5563,13 +5560,13 @@
         <v>305</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
@@ -5577,13 +5574,13 @@
         <v>306</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -5597,7 +5594,7 @@
         <v>4</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -5611,7 +5608,7 @@
         <v>4</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>32</v>
+        <v>149</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
@@ -5619,13 +5616,13 @@
         <v>309</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
@@ -5639,12 +5636,12 @@
         <v>4</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>311</v>
+        <v>154</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>3</v>
@@ -5653,21 +5650,21 @@
         <v>4</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>43</v>
+        <v>154</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>154</v>
+        <v>311</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>154</v>
+        <v>28</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -5681,12 +5678,12 @@
         <v>4</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>313</v>
+        <v>103</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>16</v>
@@ -5695,12 +5692,12 @@
         <v>4</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>36</v>
+        <v>103</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>103</v>
+        <v>313</v>
       </c>
       <c r="B284" s="2" t="s">
         <v>16</v>
@@ -5709,7 +5706,7 @@
         <v>4</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
@@ -5717,13 +5714,13 @@
         <v>314</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>115</v>
+        <v>5</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -5737,7 +5734,7 @@
         <v>4</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
@@ -5751,12 +5748,12 @@
         <v>4</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>80</v>
+        <v>232</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>317</v>
+        <v>135</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>3</v>
@@ -5765,12 +5762,12 @@
         <v>4</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>233</v>
+        <v>135</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>135</v>
+        <v>317</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>3</v>
@@ -5779,12 +5776,12 @@
         <v>4</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>135</v>
+        <v>221</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>318</v>
+        <v>178</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>3</v>
@@ -5793,21 +5790,21 @@
         <v>4</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>222</v>
+        <v>178</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>178</v>
+        <v>318</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>178</v>
+        <v>69</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -5821,7 +5818,7 @@
         <v>4</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
@@ -5829,13 +5826,13 @@
         <v>320</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
@@ -5843,32 +5840,32 @@
         <v>321</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>62</v>
+        <v>140</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
-        <v>322</v>
+        <v>73</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>140</v>
+        <v>73</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>3</v>
@@ -5877,35 +5874,35 @@
         <v>4</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>69</v>
+        <v>322</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -5919,7 +5916,7 @@
         <v>4</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -5933,7 +5930,7 @@
         <v>4</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -5941,18 +5938,18 @@
         <v>325</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
-        <v>326</v>
+        <v>115</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>16</v>
@@ -5961,12 +5958,12 @@
         <v>4</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
-        <v>115</v>
+        <v>326</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>16</v>
@@ -5975,26 +5972,26 @@
         <v>4</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
-        <v>327</v>
+        <v>55</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>129</v>
+        <v>55</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
-        <v>55</v>
+        <v>327</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>3</v>
@@ -6003,7 +6000,7 @@
         <v>4</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>55</v>
+        <v>135</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
@@ -6017,7 +6014,7 @@
         <v>4</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>135</v>
+        <v>178</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -6031,7 +6028,7 @@
         <v>4</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -6039,13 +6036,13 @@
         <v>330</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>133</v>
+        <v>184</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
@@ -6053,13 +6050,13 @@
         <v>331</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>184</v>
+        <v>96</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
@@ -6073,7 +6070,7 @@
         <v>4</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
@@ -6087,7 +6084,7 @@
         <v>4</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
@@ -6095,13 +6092,13 @@
         <v>334</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>98</v>
+        <v>168</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
@@ -6115,7 +6112,7 @@
         <v>4</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
@@ -6129,7 +6126,7 @@
         <v>4</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>170</v>
+        <v>22</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
@@ -6137,13 +6134,13 @@
         <v>337</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>22</v>
+        <v>121</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
@@ -6151,13 +6148,13 @@
         <v>338</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>121</v>
+        <v>182</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
@@ -6171,7 +6168,7 @@
         <v>4</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>182</v>
+        <v>149</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
@@ -6179,13 +6176,13 @@
         <v>340</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
@@ -6193,13 +6190,13 @@
         <v>341</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
@@ -6207,13 +6204,13 @@
         <v>342</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>145</v>
+        <v>67</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
@@ -6221,13 +6218,13 @@
         <v>343</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>67</v>
+        <v>159</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
@@ -6235,41 +6232,41 @@
         <v>344</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>159</v>
+        <v>245</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>345</v>
+        <v>264</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
-        <v>265</v>
+        <v>345</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>265</v>
+        <v>110</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
@@ -6283,35 +6280,35 @@
         <v>4</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>110</v>
+        <v>157</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
-        <v>347</v>
+        <v>182</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
-        <v>182</v>
+        <v>347</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
@@ -6325,7 +6322,7 @@
         <v>4</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
@@ -6339,7 +6336,7 @@
         <v>4</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
@@ -6353,26 +6350,26 @@
         <v>4</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>35</v>
+        <v>165</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
-        <v>351</v>
+        <v>75</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>165</v>
+        <v>75</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
-        <v>75</v>
+        <v>351</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>16</v>
@@ -6395,12 +6392,12 @@
         <v>4</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>75</v>
+        <v>168</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
-        <v>353</v>
+        <v>140</v>
       </c>
       <c r="B334" s="2" t="s">
         <v>16</v>
@@ -6409,21 +6406,21 @@
         <v>4</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
-        <v>140</v>
+        <v>353</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
@@ -6437,7 +6434,7 @@
         <v>4</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
@@ -6445,13 +6442,13 @@
         <v>355</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
@@ -6465,7 +6462,7 @@
         <v>4</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
@@ -6487,13 +6484,13 @@
         <v>358</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
@@ -6507,7 +6504,7 @@
         <v>4</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
@@ -6521,12 +6518,12 @@
         <v>4</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
-        <v>361</v>
+        <v>83</v>
       </c>
       <c r="B343" s="2" t="s">
         <v>3</v>
@@ -6535,40 +6532,40 @@
         <v>4</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
-        <v>83</v>
+        <v>361</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
-        <v>362</v>
+        <v>14</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
-        <v>14</v>
+        <v>362</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>3</v>
@@ -6577,7 +6574,7 @@
         <v>4</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>14</v>
+        <v>165</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
@@ -6591,7 +6588,7 @@
         <v>4</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>165</v>
+        <v>20</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
@@ -6599,13 +6596,13 @@
         <v>364</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>20</v>
+        <v>219</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
@@ -6619,35 +6616,35 @@
         <v>4</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>220</v>
+        <v>123</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
-        <v>366</v>
+        <v>92</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
-        <v>92</v>
+        <v>366</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
@@ -6655,13 +6652,13 @@
         <v>367</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>53</v>
+        <v>157</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
@@ -6675,7 +6672,7 @@
         <v>4</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>157</v>
+        <v>10</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
@@ -6683,32 +6680,32 @@
         <v>369</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>10</v>
+        <v>173</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
-        <v>370</v>
+        <v>113</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>173</v>
+        <v>113</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B356" s="2" t="s">
         <v>3</v>
@@ -6717,12 +6714,12 @@
         <v>4</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
-        <v>109</v>
+        <v>370</v>
       </c>
       <c r="B357" s="2" t="s">
         <v>3</v>
@@ -6731,7 +6728,7 @@
         <v>4</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>109</v>
+        <v>62</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
@@ -6745,7 +6742,7 @@
         <v>4</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
@@ -6753,13 +6750,13 @@
         <v>372</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>121</v>
+        <v>184</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
@@ -6773,7 +6770,7 @@
         <v>4</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
@@ -6781,13 +6778,13 @@
         <v>374</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
@@ -6795,13 +6792,13 @@
         <v>375</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>165</v>
+        <v>94</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
@@ -6815,7 +6812,7 @@
         <v>4</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
@@ -6829,7 +6826,7 @@
         <v>4</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>65</v>
+        <v>161</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
@@ -6843,7 +6840,7 @@
         <v>4</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>161</v>
+        <v>198</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
@@ -6851,13 +6848,13 @@
         <v>379</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
@@ -6865,13 +6862,13 @@
         <v>380</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>178</v>
+        <v>90</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
@@ -6885,35 +6882,35 @@
         <v>4</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
-        <v>382</v>
+        <v>5</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
-        <v>5</v>
+        <v>382</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>5</v>
+        <v>173</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
@@ -6921,13 +6918,13 @@
         <v>383</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>173</v>
+        <v>35</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
@@ -6935,32 +6932,32 @@
         <v>384</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
-        <v>385</v>
+        <v>117</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
-        <v>117</v>
+        <v>385</v>
       </c>
       <c r="B374" s="2" t="s">
         <v>3</v>
@@ -6969,7 +6966,7 @@
         <v>4</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
@@ -6983,7 +6980,7 @@
         <v>4</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>96</v>
+        <v>186</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
@@ -6991,13 +6988,13 @@
         <v>387</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>186</v>
+        <v>90</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
@@ -7011,7 +7008,7 @@
         <v>4</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
@@ -7019,13 +7016,13 @@
         <v>389</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
@@ -7033,13 +7030,13 @@
         <v>390</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>113</v>
+        <v>157</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
@@ -7047,13 +7044,13 @@
         <v>391</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D380" s="2" t="s">
-        <v>157</v>
+        <v>113</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
@@ -7067,7 +7064,7 @@
         <v>4</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>113</v>
+        <v>33</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
@@ -7075,13 +7072,13 @@
         <v>393</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
@@ -7089,41 +7086,41 @@
         <v>394</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
-        <v>395</v>
+        <v>219</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>61</v>
+        <v>219</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
-        <v>220</v>
+        <v>395</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>220</v>
+        <v>12</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
@@ -7131,13 +7128,13 @@
         <v>396</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D386" s="2" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
@@ -7145,41 +7142,41 @@
         <v>397</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D387" s="2" t="s">
-        <v>53</v>
+        <v>135</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
-        <v>398</v>
+        <v>94</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
-        <v>94</v>
+        <v>398</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C389" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>94</v>
+        <v>133</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
@@ -7187,13 +7184,13 @@
         <v>399</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
@@ -7201,13 +7198,13 @@
         <v>400</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>103</v>
+        <v>39</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
@@ -7215,13 +7212,13 @@
         <v>401</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C392" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D392" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
@@ -7235,12 +7232,12 @@
         <v>4</v>
       </c>
       <c r="D393" s="2" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
-        <v>403</v>
+        <v>100</v>
       </c>
       <c r="B394" s="2" t="s">
         <v>16</v>
@@ -7249,21 +7246,21 @@
         <v>4</v>
       </c>
       <c r="D394" s="2" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
-        <v>100</v>
+        <v>403</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D395" s="2" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
@@ -7277,7 +7274,7 @@
         <v>4</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
@@ -7291,7 +7288,7 @@
         <v>4</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
@@ -7305,7 +7302,7 @@
         <v>4</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>113</v>
+        <v>245</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
@@ -7313,13 +7310,13 @@
         <v>407</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D399" s="2" t="s">
-        <v>246</v>
+        <v>159</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
@@ -7327,13 +7324,13 @@
         <v>408</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C400" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D400" s="2" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
@@ -7341,18 +7338,18 @@
         <v>409</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C401" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D401" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
-        <v>410</v>
+        <v>247</v>
       </c>
       <c r="B402" s="2" t="s">
         <v>16</v>
@@ -7361,21 +7358,21 @@
         <v>4</v>
       </c>
       <c r="D402" s="2" t="s">
-        <v>123</v>
+        <v>247</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
-        <v>248</v>
+        <v>410</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C403" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D403" s="2" t="s">
-        <v>248</v>
+        <v>154</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
@@ -7389,7 +7386,7 @@
         <v>4</v>
       </c>
       <c r="D404" s="2" t="s">
-        <v>154</v>
+        <v>29</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
@@ -7403,7 +7400,7 @@
         <v>4</v>
       </c>
       <c r="D405" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
@@ -7417,7 +7414,7 @@
         <v>4</v>
       </c>
       <c r="D406" s="2" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
@@ -7431,7 +7428,7 @@
         <v>4</v>
       </c>
       <c r="D407" s="2" t="s">
-        <v>61</v>
+        <v>133</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
@@ -7445,7 +7442,7 @@
         <v>4</v>
       </c>
       <c r="D408" s="2" t="s">
-        <v>133</v>
+        <v>29</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
@@ -7459,26 +7456,26 @@
         <v>4</v>
       </c>
       <c r="D409" s="2" t="s">
-        <v>29</v>
+        <v>154</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
-        <v>417</v>
+        <v>60</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D410" s="2" t="s">
-        <v>154</v>
+        <v>60</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
-        <v>60</v>
+        <v>417</v>
       </c>
       <c r="B411" s="2" t="s">
         <v>16</v>
@@ -7487,7 +7484,7 @@
         <v>4</v>
       </c>
       <c r="D411" s="2" t="s">
-        <v>60</v>
+        <v>149</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
@@ -7501,7 +7498,7 @@
         <v>4</v>
       </c>
       <c r="D412" s="2" t="s">
-        <v>149</v>
+        <v>100</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
@@ -7515,7 +7512,7 @@
         <v>4</v>
       </c>
       <c r="D413" s="2" t="s">
-        <v>100</v>
+        <v>176</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
@@ -7529,7 +7526,7 @@
         <v>4</v>
       </c>
       <c r="D414" s="2" t="s">
-        <v>176</v>
+        <v>227</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
@@ -7543,12 +7540,12 @@
         <v>4</v>
       </c>
       <c r="D415" s="2" t="s">
-        <v>228</v>
+        <v>49</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
-        <v>422</v>
+        <v>49</v>
       </c>
       <c r="B416" s="2" t="s">
         <v>16</v>
@@ -7562,16 +7559,16 @@
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
-        <v>49</v>
+        <v>422</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D417" s="2" t="s">
-        <v>49</v>
+        <v>186</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
@@ -7585,7 +7582,7 @@
         <v>4</v>
       </c>
       <c r="D418" s="2" t="s">
-        <v>186</v>
+        <v>30</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
@@ -7593,18 +7590,18 @@
         <v>424</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D419" s="2" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
-        <v>425</v>
+        <v>254</v>
       </c>
       <c r="B420" s="2" t="s">
         <v>16</v>
@@ -7613,12 +7610,12 @@
         <v>4</v>
       </c>
       <c r="D420" s="2" t="s">
-        <v>45</v>
+        <v>254</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
-        <v>255</v>
+        <v>425</v>
       </c>
       <c r="B421" s="2" t="s">
         <v>16</v>
@@ -7627,20 +7624,6 @@
         <v>4</v>
       </c>
       <c r="D421" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A422" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="B422" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C422" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D422" s="2" t="s">
         <v>53</v>
       </c>
     </row>

--- a/app/database/insert_dicts/data/fils_dict.xlsx
+++ b/app/database/insert_dicts/data/fils_dict.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28508"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\timosii\my_administrator\app\database\insert_dicts\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\timosii\my_administrator\app\database\insert_dicts\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5382FB14-EA49-48FC-A1E3-0578F02470EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="new" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2105" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2355" uniqueCount="488">
   <si>
     <t>fil_</t>
   </si>
@@ -1316,12 +1315,183 @@
   </si>
   <si>
     <t>True</t>
+  </si>
+  <si>
+    <t>ГБ Вороновская</t>
+  </si>
+  <si>
+    <t>ГБ Вороновская (ПО)</t>
+  </si>
+  <si>
+    <t>ГБ Вороновская амбулатория Роговская</t>
+  </si>
+  <si>
+    <t>ГБ Кузнечики Фабрика 1 мая</t>
+  </si>
+  <si>
+    <t>ГБ Кузнечики</t>
+  </si>
+  <si>
+    <t>ГБ Кузнечики (ПО) Знамя</t>
+  </si>
+  <si>
+    <t>ГБ Кузнечики (ПО) Ерино</t>
+  </si>
+  <si>
+    <t>ГБ Кузнечики амбулатория Курилово</t>
+  </si>
+  <si>
+    <t>ГБ Кузнечики (ПО) Красная Пахра</t>
+  </si>
+  <si>
+    <t>ГБ Кузнечики (ДО) Рязановское</t>
+  </si>
+  <si>
+    <t>ГБ Кузнечики амбулатория Остафьево</t>
+  </si>
+  <si>
+    <t>ГБ Кузнечики (ПО) Шишкин Лес</t>
+  </si>
+  <si>
+    <t>ГБ Кузнечики модуль</t>
+  </si>
+  <si>
+    <t>ГБ Кузнечики амбулатория Кленово</t>
+  </si>
+  <si>
+    <t>ГБ Кузнечики амбулатория Щапово</t>
+  </si>
+  <si>
+    <t>ГБ Московский филиал 5 (ППО)</t>
+  </si>
+  <si>
+    <t>ГБ Московский</t>
+  </si>
+  <si>
+    <t>ГБ Московский филиал 3</t>
+  </si>
+  <si>
+    <t>ГБ Московский филиал 7</t>
+  </si>
+  <si>
+    <t>ГБ Московский Поликлиника</t>
+  </si>
+  <si>
+    <t>ГБ Московский филиал 8</t>
+  </si>
+  <si>
+    <t>ГБ Московский филиал 6 (ДО)</t>
+  </si>
+  <si>
+    <t>ГБ Московский филиал 2</t>
+  </si>
+  <si>
+    <t>ГБ Московский филиал 6 (ПО)</t>
+  </si>
+  <si>
+    <t>ГБ Московский филиал 5</t>
+  </si>
+  <si>
+    <t>ГБ Московский филиал 1</t>
+  </si>
+  <si>
+    <t>ГБ Московский филиал 4 (ДО)</t>
+  </si>
+  <si>
+    <t>ГБ Московский филиал 4 (ПО)</t>
+  </si>
+  <si>
+    <t>ГБ Троицкая филиал 1</t>
+  </si>
+  <si>
+    <t>ГБ Троицкая</t>
+  </si>
+  <si>
+    <t>ГБ Троицкая филиал 2</t>
+  </si>
+  <si>
+    <t>ГБ Троицкая филиал 3</t>
+  </si>
+  <si>
+    <t>ГБ Троицкая амбулатория 1</t>
+  </si>
+  <si>
+    <t>ГБ Троицкая амбулатория 3</t>
+  </si>
+  <si>
+    <t>ГБ Троицкая филиал 4</t>
+  </si>
+  <si>
+    <t>ГБ Троицкая амбулатория 2</t>
+  </si>
+  <si>
+    <t>ГБ Троицкая (ДО)</t>
+  </si>
+  <si>
+    <t>ГБ Троицкая (ПО)</t>
+  </si>
+  <si>
+    <t>ГБ Щербинская</t>
+  </si>
+  <si>
+    <t>ГБ Щербинская (ПО)</t>
+  </si>
+  <si>
+    <t>ГБ Щербинская (ДО)</t>
+  </si>
+  <si>
+    <t>ГКБ 13 (КДО)</t>
+  </si>
+  <si>
+    <t>ГКБ 13</t>
+  </si>
+  <si>
+    <t>ГКБ 13 Южнопортовый филиал</t>
+  </si>
+  <si>
+    <t>ГКБ 13 (ПО)</t>
+  </si>
+  <si>
+    <t>ГКБ 3 (ПО 3)</t>
+  </si>
+  <si>
+    <t>ГКБ 3</t>
+  </si>
+  <si>
+    <t>ГКБ 3 филиал 1</t>
+  </si>
+  <si>
+    <t>ГКБ 3 филиал 3</t>
+  </si>
+  <si>
+    <t>ГКБ 3 (ПО 5)</t>
+  </si>
+  <si>
+    <t>ГКБ 3 филиал 2</t>
+  </si>
+  <si>
+    <t>ГКБ 3 (ПО 2)</t>
+  </si>
+  <si>
+    <t>ГКБ 3 (ПО 4)</t>
+  </si>
+  <si>
+    <t>Закрыто ГП 201 Ф 3 (корп. 911)</t>
+  </si>
+  <si>
+    <t>ГКБ 3 (ПО 1)</t>
+  </si>
+  <si>
+    <t>ДГКБ 13</t>
+  </si>
+  <si>
+    <t>ДГКБ 13 (ДО)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1608,24 +1778,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E421"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E471"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H56" sqref="H56"/>
+      <pane ySplit="1" topLeftCell="A406" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F417" sqref="F417"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" customWidth="1"/>
-    <col min="5" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="35.54296875" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" customWidth="1"/>
+    <col min="3" max="3" width="20.08984375" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" customWidth="1"/>
+    <col min="6" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1642,7 +1813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>37</v>
       </c>
@@ -1659,7 +1830,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>171</v>
       </c>
@@ -1676,7 +1847,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>215</v>
       </c>
@@ -1693,7 +1864,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>396</v>
       </c>
@@ -1710,7 +1881,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>129</v>
       </c>
@@ -1727,7 +1898,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
@@ -1744,7 +1915,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
@@ -1761,7 +1932,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>277</v>
       </c>
@@ -1778,7 +1949,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>33</v>
       </c>
@@ -1795,7 +1966,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>415</v>
       </c>
@@ -1812,7 +1983,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>419</v>
       </c>
@@ -1829,7 +2000,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>261</v>
       </c>
@@ -1846,7 +2017,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>232</v>
       </c>
@@ -1863,7 +2034,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>121</v>
       </c>
@@ -1880,7 +2051,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>120</v>
       </c>
@@ -1897,7 +2068,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>159</v>
       </c>
@@ -1914,7 +2085,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>412</v>
       </c>
@@ -1931,7 +2102,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>240</v>
       </c>
@@ -1948,7 +2119,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>39</v>
       </c>
@@ -1965,7 +2136,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>353</v>
       </c>
@@ -1982,7 +2153,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>273</v>
       </c>
@@ -1999,7 +2170,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>38</v>
       </c>
@@ -2016,7 +2187,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>183</v>
       </c>
@@ -2033,7 +2204,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>387</v>
       </c>
@@ -2050,7 +2221,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>117</v>
       </c>
@@ -2067,7 +2238,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>393</v>
       </c>
@@ -2084,7 +2255,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>409</v>
       </c>
@@ -2101,7 +2272,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>395</v>
       </c>
@@ -2118,7 +2289,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>116</v>
       </c>
@@ -2135,7 +2306,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>14</v>
       </c>
@@ -2152,7 +2323,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>22</v>
       </c>
@@ -2169,7 +2340,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>372</v>
       </c>
@@ -2186,7 +2357,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>13</v>
       </c>
@@ -2203,7 +2374,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>16</v>
       </c>
@@ -2220,7 +2391,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>140</v>
       </c>
@@ -2237,7 +2408,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>15</v>
       </c>
@@ -2254,7 +2425,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>85</v>
       </c>
@@ -2271,7 +2442,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>203</v>
       </c>
@@ -2288,7 +2459,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>399</v>
       </c>
@@ -2305,7 +2476,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>161</v>
       </c>
@@ -2322,7 +2493,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>272</v>
       </c>
@@ -2339,7 +2510,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>160</v>
       </c>
@@ -2356,7 +2527,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>371</v>
       </c>
@@ -2373,7 +2544,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>350</v>
       </c>
@@ -2390,7 +2561,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>208</v>
       </c>
@@ -2407,7 +2578,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>394</v>
       </c>
@@ -2424,7 +2595,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>66</v>
       </c>
@@ -2441,7 +2612,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>256</v>
       </c>
@@ -2458,7 +2629,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>374</v>
       </c>
@@ -2475,7 +2646,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>324</v>
       </c>
@@ -2492,7 +2663,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>199</v>
       </c>
@@ -2509,7 +2680,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>226</v>
       </c>
@@ -2526,7 +2697,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
@@ -2543,7 +2714,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>193</v>
       </c>
@@ -2560,7 +2731,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>252</v>
       </c>
@@ -2577,7 +2748,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>58</v>
       </c>
@@ -2594,7 +2765,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>24</v>
       </c>
@@ -2611,7 +2782,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>210</v>
       </c>
@@ -2628,7 +2799,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>245</v>
       </c>
@@ -2645,7 +2816,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>367</v>
       </c>
@@ -2662,7 +2833,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>254</v>
       </c>
@@ -2679,7 +2850,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>23</v>
       </c>
@@ -2696,7 +2867,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>182</v>
       </c>
@@ -2713,7 +2884,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>238</v>
       </c>
@@ -2730,7 +2901,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>220</v>
       </c>
@@ -2747,7 +2918,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>383</v>
       </c>
@@ -2764,7 +2935,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>181</v>
       </c>
@@ -2781,7 +2952,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>332</v>
       </c>
@@ -2798,7 +2969,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>8</v>
       </c>
@@ -2815,7 +2986,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>145</v>
       </c>
@@ -2832,7 +3003,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>5</v>
       </c>
@@ -2849,7 +3020,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>194</v>
       </c>
@@ -2866,7 +3037,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>318</v>
       </c>
@@ -2883,7 +3054,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>190</v>
       </c>
@@ -2900,7 +3071,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>426</v>
       </c>
@@ -2917,7 +3088,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>390</v>
       </c>
@@ -2934,7 +3105,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>216</v>
       </c>
@@ -2951,7 +3122,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>114</v>
       </c>
@@ -2968,7 +3139,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
         <v>270</v>
       </c>
@@ -2985,7 +3156,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>269</v>
       </c>
@@ -3002,7 +3173,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>349</v>
       </c>
@@ -3019,7 +3190,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>113</v>
       </c>
@@ -3036,7 +3207,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
         <v>265</v>
       </c>
@@ -3053,7 +3224,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
         <v>135</v>
       </c>
@@ -3070,7 +3241,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
         <v>146</v>
       </c>
@@ -3087,7 +3258,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>112</v>
       </c>
@@ -3104,7 +3275,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
         <v>283</v>
       </c>
@@ -3121,7 +3292,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
         <v>200</v>
       </c>
@@ -3138,7 +3309,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>280</v>
       </c>
@@ -3155,7 +3326,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
         <v>225</v>
       </c>
@@ -3172,7 +3343,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
         <v>321</v>
       </c>
@@ -3189,7 +3360,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
         <v>274</v>
       </c>
@@ -3206,7 +3377,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
         <v>169</v>
       </c>
@@ -3223,7 +3394,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
         <v>354</v>
       </c>
@@ -3240,7 +3411,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
         <v>366</v>
       </c>
@@ -3257,7 +3428,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
         <v>262</v>
       </c>
@@ -3274,7 +3445,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
         <v>192</v>
       </c>
@@ -3291,7 +3462,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
         <v>378</v>
       </c>
@@ -3308,7 +3479,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
         <v>174</v>
       </c>
@@ -3325,7 +3496,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
         <v>339</v>
       </c>
@@ -3342,7 +3513,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
         <v>217</v>
       </c>
@@ -3359,7 +3530,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
         <v>287</v>
       </c>
@@ -3376,7 +3547,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
         <v>173</v>
       </c>
@@ -3393,7 +3564,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
         <v>206</v>
       </c>
@@ -3410,7 +3581,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
         <v>296</v>
       </c>
@@ -3427,7 +3598,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
         <v>167</v>
       </c>
@@ -3444,7 +3615,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
         <v>255</v>
       </c>
@@ -3461,7 +3632,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
         <v>166</v>
       </c>
@@ -3478,7 +3649,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
         <v>260</v>
       </c>
@@ -3495,7 +3666,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
         <v>237</v>
       </c>
@@ -3512,7 +3683,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
         <v>284</v>
       </c>
@@ -3529,7 +3700,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
         <v>75</v>
       </c>
@@ -3546,7 +3717,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
         <v>74</v>
       </c>
@@ -3563,7 +3734,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
         <v>295</v>
       </c>
@@ -3580,7 +3751,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
         <v>156</v>
       </c>
@@ -3597,7 +3768,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
         <v>12</v>
       </c>
@@ -3614,7 +3785,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
         <v>336</v>
       </c>
@@ -3631,7 +3802,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
         <v>309</v>
       </c>
@@ -3648,7 +3819,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
         <v>294</v>
       </c>
@@ -3665,7 +3836,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
         <v>151</v>
       </c>
@@ -3682,7 +3853,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
         <v>10</v>
       </c>
@@ -3699,7 +3870,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
         <v>236</v>
       </c>
@@ -3716,7 +3887,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
         <v>304</v>
       </c>
@@ -3733,7 +3904,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
         <v>235</v>
       </c>
@@ -3750,7 +3921,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
         <v>320</v>
       </c>
@@ -3767,7 +3938,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
         <v>87</v>
       </c>
@@ -3784,7 +3955,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
         <v>86</v>
       </c>
@@ -3801,7 +3972,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
         <v>142</v>
       </c>
@@ -3818,7 +3989,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
         <v>34</v>
       </c>
@@ -3835,7 +4006,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
         <v>351</v>
       </c>
@@ -3852,7 +4023,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
         <v>175</v>
       </c>
@@ -3869,7 +4040,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
         <v>198</v>
       </c>
@@ -3886,7 +4057,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
         <v>147</v>
       </c>
@@ -3903,7 +4074,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
         <v>303</v>
       </c>
@@ -3920,7 +4091,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
         <v>427</v>
       </c>
@@ -3937,7 +4108,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
         <v>102</v>
       </c>
@@ -3954,7 +4125,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
         <v>207</v>
       </c>
@@ -3971,7 +4142,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
         <v>290</v>
       </c>
@@ -3988,7 +4159,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
         <v>101</v>
       </c>
@@ -4005,7 +4176,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
         <v>337</v>
       </c>
@@ -4022,7 +4193,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
         <v>28</v>
       </c>
@@ -4039,7 +4210,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
         <v>111</v>
       </c>
@@ -4056,7 +4227,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
         <v>301</v>
       </c>
@@ -4073,7 +4244,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
         <v>109</v>
       </c>
@@ -4090,7 +4261,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
         <v>27</v>
       </c>
@@ -4107,7 +4278,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
         <v>89</v>
       </c>
@@ -4124,7 +4295,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
         <v>55</v>
       </c>
@@ -4141,7 +4312,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
         <v>326</v>
       </c>
@@ -4158,7 +4329,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="s">
         <v>62</v>
       </c>
@@ -4175,7 +4346,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="s">
         <v>54</v>
       </c>
@@ -4192,7 +4363,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="s">
         <v>407</v>
       </c>
@@ -4209,7 +4380,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="3" t="s">
         <v>45</v>
       </c>
@@ -4226,7 +4397,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
         <v>416</v>
       </c>
@@ -4243,7 +4414,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
         <v>110</v>
       </c>
@@ -4260,7 +4431,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
         <v>44</v>
       </c>
@@ -4277,7 +4448,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="s">
         <v>67</v>
       </c>
@@ -4294,7 +4465,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="3" t="s">
         <v>139</v>
       </c>
@@ -4311,7 +4482,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="3" t="s">
         <v>138</v>
       </c>
@@ -4328,7 +4499,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="3" t="s">
         <v>275</v>
       </c>
@@ -4345,7 +4516,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="3" t="s">
         <v>331</v>
       </c>
@@ -4362,7 +4533,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="3" t="s">
         <v>184</v>
       </c>
@@ -4379,7 +4550,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="3" t="s">
         <v>401</v>
       </c>
@@ -4396,7 +4567,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="3" t="s">
         <v>81</v>
       </c>
@@ -4413,7 +4584,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="3" t="s">
         <v>164</v>
       </c>
@@ -4430,7 +4601,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="3" t="s">
         <v>80</v>
       </c>
@@ -4447,7 +4618,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="3" t="s">
         <v>362</v>
       </c>
@@ -4464,7 +4635,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="3" t="s">
         <v>77</v>
       </c>
@@ -4481,7 +4652,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="3" t="s">
         <v>155</v>
       </c>
@@ -4498,7 +4669,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="3" t="s">
         <v>300</v>
       </c>
@@ -4515,7 +4686,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="3" t="s">
         <v>76</v>
       </c>
@@ -4532,7 +4703,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="3" t="s">
         <v>82</v>
       </c>
@@ -4549,7 +4720,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="3" t="s">
         <v>363</v>
       </c>
@@ -4566,7 +4737,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="3" t="s">
         <v>137</v>
       </c>
@@ -4583,7 +4754,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="3" t="s">
         <v>136</v>
       </c>
@@ -4600,7 +4771,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="3" t="s">
         <v>333</v>
       </c>
@@ -4617,7 +4788,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="3" t="s">
         <v>297</v>
       </c>
@@ -4634,7 +4805,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="3" t="s">
         <v>402</v>
       </c>
@@ -4651,7 +4822,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="3" t="s">
         <v>276</v>
       </c>
@@ -4668,7 +4839,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="3" t="s">
         <v>418</v>
       </c>
@@ -4685,7 +4856,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="3" t="s">
         <v>47</v>
       </c>
@@ -4702,7 +4873,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="3" t="s">
         <v>170</v>
       </c>
@@ -4719,7 +4890,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="3" t="s">
         <v>46</v>
       </c>
@@ -4736,7 +4907,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="3" t="s">
         <v>299</v>
       </c>
@@ -4753,7 +4924,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="3" t="s">
         <v>314</v>
       </c>
@@ -4770,7 +4941,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="3" t="s">
         <v>131</v>
       </c>
@@ -4787,7 +4958,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="3" t="s">
         <v>128</v>
       </c>
@@ -4804,7 +4975,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="3" t="s">
         <v>195</v>
       </c>
@@ -4821,7 +4992,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="3" t="s">
         <v>364</v>
       </c>
@@ -4838,7 +5009,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="3" t="s">
         <v>71</v>
       </c>
@@ -4855,7 +5026,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="3" t="s">
         <v>70</v>
       </c>
@@ -4872,7 +5043,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="3" t="s">
         <v>234</v>
       </c>
@@ -4889,7 +5060,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="3" t="s">
         <v>352</v>
       </c>
@@ -4906,7 +5077,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="3" t="s">
         <v>346</v>
       </c>
@@ -4923,7 +5094,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="3" t="s">
         <v>96</v>
       </c>
@@ -4940,7 +5111,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="3" t="s">
         <v>408</v>
       </c>
@@ -4957,7 +5128,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="3" t="s">
         <v>95</v>
       </c>
@@ -4974,7 +5145,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="3" t="s">
         <v>73</v>
       </c>
@@ -4991,7 +5162,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="3" t="s">
         <v>154</v>
       </c>
@@ -5008,7 +5179,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="3" t="s">
         <v>72</v>
       </c>
@@ -5025,7 +5196,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="3" t="s">
         <v>322</v>
       </c>
@@ -5042,7 +5213,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="3" t="s">
         <v>388</v>
       </c>
@@ -5059,7 +5230,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="3" t="s">
         <v>69</v>
       </c>
@@ -5076,7 +5247,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="3" t="s">
         <v>323</v>
       </c>
@@ -5093,7 +5264,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="3" t="s">
         <v>380</v>
       </c>
@@ -5110,7 +5281,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" s="3" t="s">
         <v>68</v>
       </c>
@@ -5127,7 +5298,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="3" t="s">
         <v>165</v>
       </c>
@@ -5144,7 +5315,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208" s="3" t="s">
         <v>381</v>
       </c>
@@ -5161,7 +5332,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A209" s="3" t="s">
         <v>197</v>
       </c>
@@ -5178,7 +5349,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="3" t="s">
         <v>221</v>
       </c>
@@ -5195,7 +5366,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211" s="3" t="s">
         <v>223</v>
       </c>
@@ -5212,7 +5383,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="3" t="s">
         <v>227</v>
       </c>
@@ -5229,7 +5400,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="3" t="s">
         <v>222</v>
       </c>
@@ -5246,7 +5417,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A214" s="3" t="s">
         <v>368</v>
       </c>
@@ -5263,7 +5434,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215" s="3" t="s">
         <v>177</v>
       </c>
@@ -5280,7 +5451,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="3" t="s">
         <v>373</v>
       </c>
@@ -5297,7 +5468,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" s="3" t="s">
         <v>386</v>
       </c>
@@ -5314,7 +5485,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="3" t="s">
         <v>176</v>
       </c>
@@ -5331,7 +5502,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="3" t="s">
         <v>153</v>
       </c>
@@ -5348,7 +5519,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="3" t="s">
         <v>312</v>
       </c>
@@ -5365,7 +5536,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221" s="3" t="s">
         <v>421</v>
       </c>
@@ -5382,7 +5553,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="3" t="s">
         <v>343</v>
       </c>
@@ -5399,7 +5570,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" s="3" t="s">
         <v>293</v>
       </c>
@@ -5416,7 +5587,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A224" s="3" t="s">
         <v>152</v>
       </c>
@@ -5433,7 +5604,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225" s="3" t="s">
         <v>144</v>
       </c>
@@ -5450,7 +5621,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A226" s="3" t="s">
         <v>143</v>
       </c>
@@ -5467,7 +5638,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" s="3" t="s">
         <v>325</v>
       </c>
@@ -5484,7 +5655,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228" s="3" t="s">
         <v>21</v>
       </c>
@@ -5501,7 +5672,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A229" s="3" t="s">
         <v>243</v>
       </c>
@@ -5518,7 +5689,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A230" s="3" t="s">
         <v>141</v>
       </c>
@@ -5535,7 +5706,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A231" s="3" t="s">
         <v>19</v>
       </c>
@@ -5552,7 +5723,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A232" s="3" t="s">
         <v>41</v>
       </c>
@@ -5569,7 +5740,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A233" s="3" t="s">
         <v>64</v>
       </c>
@@ -5586,7 +5757,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A234" s="3" t="s">
         <v>253</v>
       </c>
@@ -5603,7 +5774,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A235" s="3" t="s">
         <v>392</v>
       </c>
@@ -5620,7 +5791,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A236" s="3" t="s">
         <v>212</v>
       </c>
@@ -5637,7 +5808,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A237" s="3" t="s">
         <v>279</v>
       </c>
@@ -5654,7 +5825,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A238" s="3" t="s">
         <v>63</v>
       </c>
@@ -5671,7 +5842,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A239" s="3" t="s">
         <v>57</v>
       </c>
@@ -5688,7 +5859,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A240" s="3" t="s">
         <v>218</v>
       </c>
@@ -5705,7 +5876,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A241" s="3" t="s">
         <v>229</v>
       </c>
@@ -5722,7 +5893,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A242" s="3" t="s">
         <v>400</v>
       </c>
@@ -5739,7 +5910,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A243" s="3" t="s">
         <v>56</v>
       </c>
@@ -5756,7 +5927,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A244" s="3" t="s">
         <v>429</v>
       </c>
@@ -5773,7 +5944,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A245" s="3" t="s">
         <v>370</v>
       </c>
@@ -5790,7 +5961,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A246" s="3" t="s">
         <v>268</v>
       </c>
@@ -5807,7 +5978,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A247" s="3" t="s">
         <v>267</v>
       </c>
@@ -5824,7 +5995,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A248" s="3" t="s">
         <v>278</v>
       </c>
@@ -5841,7 +6012,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A249" s="3" t="s">
         <v>49</v>
       </c>
@@ -5858,7 +6029,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A250" s="3" t="s">
         <v>247</v>
       </c>
@@ -5875,7 +6046,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A251" s="3" t="s">
         <v>428</v>
       </c>
@@ -5892,7 +6063,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="252" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A252" s="3" t="s">
         <v>224</v>
       </c>
@@ -5909,7 +6080,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A253" s="3" t="s">
         <v>48</v>
       </c>
@@ -5926,7 +6097,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="254" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A254" s="3" t="s">
         <v>258</v>
       </c>
@@ -5943,7 +6114,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A255" s="3" t="s">
         <v>257</v>
       </c>
@@ -5960,7 +6131,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="256" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A256" s="3" t="s">
         <v>302</v>
       </c>
@@ -5977,7 +6148,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="257" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A257" s="3" t="s">
         <v>271</v>
       </c>
@@ -5994,7 +6165,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="258" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A258" s="3" t="s">
         <v>259</v>
       </c>
@@ -6011,7 +6182,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A259" s="3" t="s">
         <v>251</v>
       </c>
@@ -6028,7 +6199,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A260" s="3" t="s">
         <v>250</v>
       </c>
@@ -6045,7 +6216,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="261" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A261" s="3" t="s">
         <v>286</v>
       </c>
@@ -6062,7 +6233,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="262" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A262" s="3" t="s">
         <v>26</v>
       </c>
@@ -6079,7 +6250,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="263" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A263" s="3" t="s">
         <v>25</v>
       </c>
@@ -6096,7 +6267,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="264" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A264" s="3" t="s">
         <v>122</v>
       </c>
@@ -6113,7 +6284,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="265" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A265" s="3" t="s">
         <v>340</v>
       </c>
@@ -6130,7 +6301,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="266" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A266" s="3" t="s">
         <v>406</v>
       </c>
@@ -6147,7 +6318,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="267" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A267" s="3" t="s">
         <v>115</v>
       </c>
@@ -6164,7 +6335,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="268" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A268" s="3" t="s">
         <v>365</v>
       </c>
@@ -6181,7 +6352,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="269" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A269" s="3" t="s">
         <v>191</v>
       </c>
@@ -6198,7 +6369,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="270" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A270" s="3" t="s">
         <v>163</v>
       </c>
@@ -6215,7 +6386,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="271" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A271" s="3" t="s">
         <v>162</v>
       </c>
@@ -6232,7 +6403,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="272" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A272" s="3" t="s">
         <v>204</v>
       </c>
@@ -6249,7 +6420,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="273" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A273" s="3" t="s">
         <v>377</v>
       </c>
@@ -6266,7 +6437,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="274" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A274" s="3" t="s">
         <v>347</v>
       </c>
@@ -6283,7 +6454,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="275" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A275" s="3" t="s">
         <v>246</v>
       </c>
@@ -6300,7 +6471,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="276" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A276" s="3" t="s">
         <v>411</v>
       </c>
@@ -6317,7 +6488,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="277" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A277" s="3" t="s">
         <v>149</v>
       </c>
@@ -6334,7 +6505,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="278" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A278" s="3" t="s">
         <v>345</v>
       </c>
@@ -6351,7 +6522,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="279" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A279" s="3" t="s">
         <v>148</v>
       </c>
@@ -6368,7 +6539,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="280" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A280" s="3" t="s">
         <v>53</v>
       </c>
@@ -6385,7 +6556,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="281" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A281" s="3" t="s">
         <v>214</v>
       </c>
@@ -6402,7 +6573,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="282" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A282" s="3" t="s">
         <v>425</v>
       </c>
@@ -6419,7 +6590,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="283" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A283" s="3" t="s">
         <v>405</v>
       </c>
@@ -6436,7 +6607,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="284" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A284" s="3" t="s">
         <v>52</v>
       </c>
@@ -6453,7 +6624,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="285" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A285" s="3" t="s">
         <v>202</v>
       </c>
@@ -6470,7 +6641,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="286" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A286" s="3" t="s">
         <v>201</v>
       </c>
@@ -6487,7 +6658,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="287" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A287" s="3" t="s">
         <v>382</v>
       </c>
@@ -6504,7 +6675,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="288" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A288" s="3" t="s">
         <v>127</v>
       </c>
@@ -6521,7 +6692,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="289" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A289" s="3" t="s">
         <v>369</v>
       </c>
@@ -6538,7 +6709,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="290" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A290" s="3" t="s">
         <v>413</v>
       </c>
@@ -6555,7 +6726,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="291" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A291" s="3" t="s">
         <v>126</v>
       </c>
@@ -6572,7 +6743,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="292" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A292" s="3" t="s">
         <v>40</v>
       </c>
@@ -6589,7 +6760,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="293" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A293" s="3" t="s">
         <v>130</v>
       </c>
@@ -6606,7 +6777,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="294" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A294" s="3" t="s">
         <v>90</v>
       </c>
@@ -6623,7 +6794,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="295" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A295" s="3" t="s">
         <v>168</v>
       </c>
@@ -6640,7 +6811,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="296" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A296" s="3" t="s">
         <v>316</v>
       </c>
@@ -6657,7 +6828,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="297" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A297" s="3" t="s">
         <v>231</v>
       </c>
@@ -6674,7 +6845,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="298" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A298" s="3" t="s">
         <v>230</v>
       </c>
@@ -6691,7 +6862,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="299" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A299" s="3" t="s">
         <v>424</v>
       </c>
@@ -6708,7 +6879,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="300" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A300" s="3" t="s">
         <v>107</v>
       </c>
@@ -6725,7 +6896,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="301" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A301" s="3" t="s">
         <v>205</v>
       </c>
@@ -6742,7 +6913,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="302" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A302" s="3" t="s">
         <v>108</v>
       </c>
@@ -6759,7 +6930,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="303" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A303" s="3" t="s">
         <v>403</v>
       </c>
@@ -6776,7 +6947,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="304" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A304" s="3" t="s">
         <v>397</v>
       </c>
@@ -6793,7 +6964,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="305" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A305" s="3" t="s">
         <v>106</v>
       </c>
@@ -6810,7 +6981,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="306" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A306" s="3" t="s">
         <v>92</v>
       </c>
@@ -6827,7 +6998,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="307" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A307" s="3" t="s">
         <v>308</v>
       </c>
@@ -6844,7 +7015,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="308" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A308" s="3" t="s">
         <v>329</v>
       </c>
@@ -6861,7 +7032,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="309" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A309" s="3" t="s">
         <v>310</v>
       </c>
@@ -6878,7 +7049,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="310" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A310" s="3" t="s">
         <v>119</v>
       </c>
@@ -6895,7 +7066,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="311" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A311" s="3" t="s">
         <v>134</v>
       </c>
@@ -6912,7 +7083,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="312" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A312" s="3" t="s">
         <v>317</v>
       </c>
@@ -6929,7 +7100,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="313" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A313" s="3" t="s">
         <v>118</v>
       </c>
@@ -6946,7 +7117,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="314" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A314" s="3" t="s">
         <v>30</v>
       </c>
@@ -6963,7 +7134,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="315" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A315" s="3" t="s">
         <v>285</v>
       </c>
@@ -6980,7 +7151,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="316" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A316" s="3" t="s">
         <v>29</v>
       </c>
@@ -6997,7 +7168,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="317" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A317" s="3" t="s">
         <v>263</v>
       </c>
@@ -7014,7 +7185,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="318" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A318" s="3" t="s">
         <v>133</v>
       </c>
@@ -7031,7 +7202,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="319" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A319" s="3" t="s">
         <v>132</v>
       </c>
@@ -7048,7 +7219,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="320" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A320" s="3" t="s">
         <v>330</v>
       </c>
@@ -7065,7 +7236,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="321" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A321" s="3" t="s">
         <v>104</v>
       </c>
@@ -7082,7 +7253,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="322" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A322" s="3" t="s">
         <v>422</v>
       </c>
@@ -7099,7 +7270,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="323" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A323" s="3" t="s">
         <v>360</v>
       </c>
@@ -7116,7 +7287,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="324" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A324" s="3" t="s">
         <v>361</v>
       </c>
@@ -7133,7 +7304,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="325" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A325" s="3" t="s">
         <v>103</v>
       </c>
@@ -7150,7 +7321,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="326" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A326" s="3" t="s">
         <v>180</v>
       </c>
@@ -7167,7 +7338,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="327" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A327" s="3" t="s">
         <v>266</v>
       </c>
@@ -7184,7 +7355,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="328" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A328" s="3" t="s">
         <v>423</v>
       </c>
@@ -7201,7 +7372,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="329" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A329" s="3" t="s">
         <v>32</v>
       </c>
@@ -7218,7 +7389,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="330" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A330" s="3" t="s">
         <v>315</v>
       </c>
@@ -7235,7 +7406,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="331" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A331" s="3" t="s">
         <v>31</v>
       </c>
@@ -7252,7 +7423,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="332" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A332" s="3" t="s">
         <v>91</v>
       </c>
@@ -7269,7 +7440,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="333" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A333" s="3" t="s">
         <v>186</v>
       </c>
@@ -7286,7 +7457,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="334" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A334" s="3" t="s">
         <v>306</v>
       </c>
@@ -7303,7 +7474,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="335" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A335" s="3" t="s">
         <v>185</v>
       </c>
@@ -7320,7 +7491,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="336" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A336" s="3" t="s">
         <v>244</v>
       </c>
@@ -7337,7 +7508,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="337" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A337" s="3" t="s">
         <v>342</v>
       </c>
@@ -7354,7 +7525,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="338" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A338" s="3" t="s">
         <v>79</v>
       </c>
@@ -7371,7 +7542,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="339" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A339" s="3" t="s">
         <v>355</v>
       </c>
@@ -7388,7 +7559,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="340" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A340" s="3" t="s">
         <v>219</v>
       </c>
@@ -7405,7 +7576,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="341" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A341" s="3" t="s">
         <v>179</v>
       </c>
@@ -7422,7 +7593,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="342" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A342" s="3" t="s">
         <v>78</v>
       </c>
@@ -7439,7 +7610,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="343" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A343" s="3" t="s">
         <v>172</v>
       </c>
@@ -7456,7 +7627,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="344" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A344" s="3" t="s">
         <v>196</v>
       </c>
@@ -7473,7 +7644,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="345" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A345" s="3" t="s">
         <v>356</v>
       </c>
@@ -7490,7 +7661,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="346" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A346" s="3" t="s">
         <v>241</v>
       </c>
@@ -7507,7 +7678,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="347" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A347" s="3" t="s">
         <v>338</v>
       </c>
@@ -7524,7 +7695,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="348" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A348" s="3" t="s">
         <v>94</v>
       </c>
@@ -7541,7 +7712,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="349" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A349" s="3" t="s">
         <v>384</v>
       </c>
@@ -7558,7 +7729,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="350" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A350" s="3" t="s">
         <v>391</v>
       </c>
@@ -7575,7 +7746,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="351" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A351" s="3" t="s">
         <v>93</v>
       </c>
@@ -7592,7 +7763,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="352" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A352" s="3" t="s">
         <v>292</v>
       </c>
@@ -7609,7 +7780,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="353" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A353" s="3" t="s">
         <v>36</v>
       </c>
@@ -7626,7 +7797,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="354" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A354" s="3" t="s">
         <v>311</v>
       </c>
@@ -7643,7 +7814,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="355" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A355" s="3" t="s">
         <v>359</v>
       </c>
@@ -7660,7 +7831,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="356" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A356" s="3" t="s">
         <v>35</v>
       </c>
@@ -7677,7 +7848,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="357" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A357" s="3" t="s">
         <v>188</v>
       </c>
@@ -7694,7 +7865,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="358" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A358" s="3" t="s">
         <v>376</v>
       </c>
@@ -7711,7 +7882,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="359" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A359" s="3" t="s">
         <v>334</v>
       </c>
@@ -7728,7 +7899,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="360" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A360" s="3" t="s">
         <v>187</v>
       </c>
@@ -7745,7 +7916,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="361" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A361" s="3" t="s">
         <v>98</v>
       </c>
@@ -7762,7 +7933,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="362" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A362" s="3" t="s">
         <v>97</v>
       </c>
@@ -7779,7 +7950,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="363" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A363" s="3" t="s">
         <v>307</v>
       </c>
@@ -7796,7 +7967,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="364" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A364" s="3" t="s">
         <v>379</v>
       </c>
@@ -7813,7 +7984,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="365" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A365" s="3" t="s">
         <v>61</v>
       </c>
@@ -7830,7 +8001,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="366" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A366" s="3" t="s">
         <v>178</v>
       </c>
@@ -7847,7 +8018,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="367" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A367" s="3" t="s">
         <v>60</v>
       </c>
@@ -7864,7 +8035,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="368" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A368" s="3" t="s">
         <v>51</v>
       </c>
@@ -7881,7 +8052,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="369" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A369" s="3" t="s">
         <v>239</v>
       </c>
@@ -7898,7 +8069,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="370" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A370" s="3" t="s">
         <v>50</v>
       </c>
@@ -7915,7 +8086,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="371" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A371" s="3" t="s">
         <v>282</v>
       </c>
@@ -7932,7 +8103,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="372" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A372" s="3" t="s">
         <v>385</v>
       </c>
@@ -7949,7 +8120,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="373" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A373" s="3" t="s">
         <v>158</v>
       </c>
@@ -7966,7 +8137,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="374" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A374" s="3" t="s">
         <v>233</v>
       </c>
@@ -7983,7 +8154,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="375" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A375" s="3" t="s">
         <v>420</v>
       </c>
@@ -8000,7 +8171,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="376" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A376" s="3" t="s">
         <v>242</v>
       </c>
@@ -8017,7 +8188,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="377" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A377" s="3" t="s">
         <v>313</v>
       </c>
@@ -8034,7 +8205,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="378" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A378" s="3" t="s">
         <v>157</v>
       </c>
@@ -8051,7 +8222,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="379" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A379" s="3" t="s">
         <v>414</v>
       </c>
@@ -8068,7 +8239,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="380" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A380" s="3" t="s">
         <v>43</v>
       </c>
@@ -8085,7 +8256,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="381" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A381" s="3" t="s">
         <v>264</v>
       </c>
@@ -8102,7 +8273,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="382" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A382" s="3" t="s">
         <v>42</v>
       </c>
@@ -8119,7 +8290,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="383" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A383" s="3" t="s">
         <v>291</v>
       </c>
@@ -8136,7 +8307,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="384" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A384" s="3" t="s">
         <v>88</v>
       </c>
@@ -8153,7 +8324,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="385" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A385" s="3" t="s">
         <v>213</v>
       </c>
@@ -8170,7 +8341,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="386" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A386" s="3" t="s">
         <v>404</v>
       </c>
@@ -8187,7 +8358,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="387" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A387" s="3" t="s">
         <v>125</v>
       </c>
@@ -8204,7 +8375,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="388" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A388" s="3" t="s">
         <v>189</v>
       </c>
@@ -8221,7 +8392,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="389" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A389" s="3" t="s">
         <v>341</v>
       </c>
@@ -8238,7 +8409,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="390" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A390" s="3" t="s">
         <v>124</v>
       </c>
@@ -8255,7 +8426,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="391" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A391" s="3" t="s">
         <v>344</v>
       </c>
@@ -8272,7 +8443,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="392" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A392" s="3" t="s">
         <v>357</v>
       </c>
@@ -8289,7 +8460,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="393" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A393" s="3" t="s">
         <v>375</v>
       </c>
@@ -8306,7 +8477,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="394" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A394" s="3" t="s">
         <v>100</v>
       </c>
@@ -8323,7 +8494,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="395" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A395" s="3" t="s">
         <v>389</v>
       </c>
@@ -8340,7 +8511,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="396" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A396" s="3" t="s">
         <v>209</v>
       </c>
@@ -8357,7 +8528,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="397" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A397" s="3" t="s">
         <v>99</v>
       </c>
@@ -8374,7 +8545,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="398" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A398" s="3" t="s">
         <v>305</v>
       </c>
@@ -8391,7 +8562,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="399" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A399" s="3" t="s">
         <v>150</v>
       </c>
@@ -8408,7 +8579,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="400" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A400" s="3" t="s">
         <v>328</v>
       </c>
@@ -8425,7 +8596,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="401" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A401" s="3" t="s">
         <v>123</v>
       </c>
@@ -8442,7 +8613,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="402" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A402" s="3" t="s">
         <v>335</v>
       </c>
@@ -8459,7 +8630,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="403" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A403" s="3" t="s">
         <v>249</v>
       </c>
@@ -8476,7 +8647,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="404" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A404" s="3" t="s">
         <v>298</v>
       </c>
@@ -8493,7 +8664,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="405" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A405" s="3" t="s">
         <v>410</v>
       </c>
@@ -8510,7 +8681,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="406" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A406" s="3" t="s">
         <v>348</v>
       </c>
@@ -8527,7 +8698,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="407" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A407" s="3" t="s">
         <v>248</v>
       </c>
@@ -8544,7 +8715,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="408" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A408" s="3" t="s">
         <v>65</v>
       </c>
@@ -8561,7 +8732,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="409" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A409" s="3" t="s">
         <v>228</v>
       </c>
@@ -8578,7 +8749,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="410" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A410" s="3" t="s">
         <v>398</v>
       </c>
@@ -8595,7 +8766,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="411" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A411" s="3" t="s">
         <v>281</v>
       </c>
@@ -8612,7 +8783,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="412" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A412" s="3" t="s">
         <v>327</v>
       </c>
@@ -8629,7 +8800,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="413" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A413" s="3" t="s">
         <v>211</v>
       </c>
@@ -8646,7 +8817,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="414" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A414" s="3" t="s">
         <v>417</v>
       </c>
@@ -8663,7 +8834,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="415" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A415" s="3" t="s">
         <v>84</v>
       </c>
@@ -8680,7 +8851,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="416" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A416" s="3" t="s">
         <v>319</v>
       </c>
@@ -8697,7 +8868,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="417" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A417" s="3" t="s">
         <v>105</v>
       </c>
@@ -8714,7 +8885,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="418" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A418" s="3" t="s">
         <v>288</v>
       </c>
@@ -8731,7 +8902,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="419" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A419" s="3" t="s">
         <v>289</v>
       </c>
@@ -8748,7 +8919,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="420" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A420" s="3" t="s">
         <v>83</v>
       </c>
@@ -8765,7 +8936,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="421" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A421" s="3" t="s">
         <v>358</v>
       </c>
@@ -8782,9 +8953,859 @@
         <v>9</v>
       </c>
     </row>
+    <row r="422" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A422" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="B422" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C422" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D422" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="E422" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A423" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="B423" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C423" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D423" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="E423" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A424" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="B424" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C424" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D424" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="E424" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A425" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="B425" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C425" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D425" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="E425" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A426" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="B426" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C426" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D426" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="E426" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A427" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="B427" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C427" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D427" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="E427" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A428" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="B428" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C428" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D428" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="E428" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A429" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="B429" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C429" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D429" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="E429" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A430" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="B430" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C430" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D430" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="E430" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A431" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="B431" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C431" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D431" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="E431" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A432" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="B432" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C432" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D432" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="E432" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A433" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="B433" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C433" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D433" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="E433" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A434" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="B434" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C434" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D434" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="E434" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A435" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="B435" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C435" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D435" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E435" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A436" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="B436" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C436" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D436" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E436" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A437" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="B437" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C437" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D437" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E437" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A438" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="B438" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C438" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D438" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E438" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A439" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="B439" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C439" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D439" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E439" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A440" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="B440" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C440" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D440" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E440" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A441" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="B441" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C441" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D441" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E441" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A442" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="B442" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C442" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D442" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E442" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A443" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="B443" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C443" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D443" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E443" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A444" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="B444" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C444" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D444" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E444" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A445" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="B445" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C445" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D445" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E445" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A446" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="B446" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C446" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D446" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E446" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A447" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="B447" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C447" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D447" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E447" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A448" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="B448" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C448" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D448" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="E448" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A449" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="B449" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C449" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D449" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="E449" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A450" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="B450" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C450" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D450" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="E450" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A451" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="B451" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C451" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D451" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="E451" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A452" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="B452" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C452" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D452" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="E452" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A453" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B453" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C453" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D453" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="E453" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A454" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B454" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C454" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D454" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="E454" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A455" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B455" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C455" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D455" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="E455" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A456" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="B456" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C456" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D456" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="E456" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A457" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="B457" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C457" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D457" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="E457" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A458" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="B458" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C458" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D458" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="E458" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A459" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="B459" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C459" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D459" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="E459" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A460" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="B460" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C460" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D460" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="E460" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A461" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="B461" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C461" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D461" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="E461" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A462" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="B462" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C462" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D462" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="E462" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A463" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="B463" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C463" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D463" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="E463" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A464" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="B464" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C464" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D464" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="E464" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A465" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="B465" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C465" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D465" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="E465" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A466" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="B466" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C466" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D466" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="E466" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A467" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="B467" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C467" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D467" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="E467" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A468" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="B468" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C468" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D468" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="E468" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A469" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="B469" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C469" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D469" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="E469" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A470" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="B470" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C470" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D470" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="E470" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A471" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="B471" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C471" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D471" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="E471" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D4" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D421">
+  <autoFilter ref="A1:D4">
+    <sortState ref="A2:D421">
       <sortCondition ref="A1:A4"/>
     </sortState>
   </autoFilter>

--- a/app/database/insert_dicts/data/fils_dict.xlsx
+++ b/app/database/insert_dicts/data/fils_dict.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8350"/>
   </bookViews>
   <sheets>
     <sheet name="new" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2355" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2350" uniqueCount="488">
   <si>
     <t>fil_</t>
   </si>
@@ -1779,11 +1779,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E471"/>
+  <dimension ref="A1:E470"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A406" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F417" sqref="F417"/>
+      <pane ySplit="1" topLeftCell="A447" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A449" sqref="A449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1796,7 +1796,7 @@
     <col min="6" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9346,10 +9346,10 @@
     </row>
     <row r="445" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A445" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C445" s="3" t="s">
         <v>7</v>
@@ -9363,10 +9363,10 @@
     </row>
     <row r="446" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A446" s="3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C446" s="3" t="s">
         <v>7</v>
@@ -9380,16 +9380,16 @@
     </row>
     <row r="447" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A447" s="3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C447" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D447" s="3" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="E447" s="4" t="s">
         <v>9</v>
@@ -9397,7 +9397,7 @@
     </row>
     <row r="448" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A448" s="3" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B448" s="3" t="s">
         <v>11</v>
@@ -9414,7 +9414,7 @@
     </row>
     <row r="449" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A449" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B449" s="3" t="s">
         <v>11</v>
@@ -9431,7 +9431,7 @@
     </row>
     <row r="450" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A450" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B450" s="3" t="s">
         <v>11</v>
@@ -9448,10 +9448,10 @@
     </row>
     <row r="451" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A451" s="3" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C451" s="3" t="s">
         <v>7</v>
@@ -9465,10 +9465,10 @@
     </row>
     <row r="452" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A452" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C452" s="3" t="s">
         <v>7</v>
@@ -9482,7 +9482,7 @@
     </row>
     <row r="453" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A453" s="3" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B453" s="3" t="s">
         <v>11</v>
@@ -9499,10 +9499,10 @@
     </row>
     <row r="454" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A454" s="3" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C454" s="3" t="s">
         <v>7</v>
@@ -9516,10 +9516,10 @@
     </row>
     <row r="455" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A455" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C455" s="3" t="s">
         <v>7</v>
@@ -9533,7 +9533,7 @@
     </row>
     <row r="456" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A456" s="3" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B456" s="3" t="s">
         <v>6</v>
@@ -9542,7 +9542,7 @@
         <v>7</v>
       </c>
       <c r="D456" s="3" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="E456" s="4" t="s">
         <v>9</v>
@@ -9550,10 +9550,10 @@
     </row>
     <row r="457" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A457" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C457" s="3" t="s">
         <v>7</v>
@@ -9567,16 +9567,16 @@
     </row>
     <row r="458" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A458" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C458" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D458" s="3" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="E458" s="4" t="s">
         <v>9</v>
@@ -9584,7 +9584,7 @@
     </row>
     <row r="459" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A459" s="3" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B459" s="3" t="s">
         <v>6</v>
@@ -9601,7 +9601,7 @@
     </row>
     <row r="460" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A460" s="3" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B460" s="3" t="s">
         <v>6</v>
@@ -9618,7 +9618,7 @@
     </row>
     <row r="461" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A461" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B461" s="3" t="s">
         <v>6</v>
@@ -9627,7 +9627,7 @@
         <v>7</v>
       </c>
       <c r="D461" s="3" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="E461" s="4" t="s">
         <v>9</v>
@@ -9635,7 +9635,7 @@
     </row>
     <row r="462" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A462" s="3" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B462" s="3" t="s">
         <v>6</v>
@@ -9652,7 +9652,7 @@
     </row>
     <row r="463" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A463" s="3" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B463" s="3" t="s">
         <v>6</v>
@@ -9669,7 +9669,7 @@
     </row>
     <row r="464" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A464" s="3" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B464" s="3" t="s">
         <v>6</v>
@@ -9686,7 +9686,7 @@
     </row>
     <row r="465" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A465" s="3" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B465" s="3" t="s">
         <v>6</v>
@@ -9703,7 +9703,7 @@
     </row>
     <row r="466" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A466" s="3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B466" s="3" t="s">
         <v>6</v>
@@ -9720,7 +9720,7 @@
     </row>
     <row r="467" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A467" s="3" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B467" s="3" t="s">
         <v>6</v>
@@ -9737,7 +9737,7 @@
     </row>
     <row r="468" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A468" s="3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B468" s="3" t="s">
         <v>6</v>
@@ -9754,7 +9754,7 @@
     </row>
     <row r="469" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A469" s="3" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B469" s="3" t="s">
         <v>6</v>
@@ -9771,35 +9771,18 @@
     </row>
     <row r="470" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A470" s="3" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C470" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D470" s="3" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="E470" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="471" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A471" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="B471" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C471" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D471" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="E471" s="4" t="s">
         <v>9</v>
       </c>
     </row>
